--- a/documents/Cross-table correction factors meetset.xlsx
+++ b/documents/Cross-table correction factors meetset.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2)Skyline-Diagnostics main\3)Quality\5)Equipment file\Equipment\Temperature and Pressure loggers\Xiltrix\Meetset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelniemantsverdriet/Library/Mobile Documents/com~apple~CloudDocs/workspace/R/skyline_projects/TCU_trend_analysis/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A974676-FD70-4059-9C21-5ACA9DE4C7FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5718ED04-93B2-E041-9873-0A0A231133BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{68BF2FD6-732F-44FE-8050-791627C64300}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{68BF2FD6-732F-44FE-8050-791627C64300}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-02" sheetId="1" r:id="rId1"/>
+    <sheet name="2021-02" sheetId="2" r:id="rId2"/>
+    <sheet name="2022-03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="17">
   <si>
     <t>XiltriX Channel</t>
   </si>
@@ -600,16 +602,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3205F47D-424E-42C5-ACFC-9FC21E89DEAA}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -626,7 +628,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="1">
         <v>45</v>
@@ -659,7 +661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -694,7 +696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -729,7 +731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -764,7 +766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -799,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -842,4 +844,498 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70C223D-F11C-434E-93E1-F8A9CCABA6FF}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="1">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2">
+        <v>55</v>
+      </c>
+      <c r="K2" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8">
+        <v>-3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8">
+        <v>-3</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3</v>
+      </c>
+      <c r="K5" s="8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95D0BB8-A10B-A24A-83E9-2A84B052FABE}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="1">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2">
+        <v>55</v>
+      </c>
+      <c r="K2" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>